--- a/Sustainability/Facilities.xlsx
+++ b/Sustainability/Facilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhamath/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander/Github/excel/Sustainability3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED39837-A12E-8A40-9FD5-378F3843F63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A701599B-3F9D-EB49-90F2-10C352EA89A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Facilities" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15958" uniqueCount="5276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15958" uniqueCount="5280">
   <si>
     <t>(Do Not Modify) Facility</t>
   </si>
@@ -15864,6 +15864,18 @@
   </si>
   <si>
     <t>msdyn_facility:HfNdr/BmvJ9hKpdTGq7/Af1nM+ePub2IP6I6IdbOdtLerunW2qMv0HLyQhigwaJNPMHUs8VYcykkgycKDOyYBQ==:msdyn_facilityid=%28Do%20Not%20Modify%29%20Facility&amp;checksumLogicalName=%28Do%20Not%20Modify%29%20Row%20Checksum&amp;modifiedon=%28Do%20Not%20Modify%29%20Modified%20On&amp;msdyn_name=Name&amp;msdyn_addressstreet1=Address%3a%20Street%201&amp;msdyn_addresscity=Address%3a%20City&amp;msdyn_addressstreet2=Address%3a%20Street%202&amp;msdyn_addresscounty=Address%3a%20County&amp;msdyn_addressstateprovince=Address%3a%20State%2fProvince&amp;msdyn_addresscountryisocode=Address%3a%20Country%2fRegion&amp;msdyn_addresszippostalcode=Address%3a%20ZIP%2fPostal%20Code&amp;msdyn_latitude=Latitude&amp;msdyn_longitude=Longitude</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>StoreName</t>
   </si>
 </sst>
 </file>
@@ -15873,7 +15885,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -15882,6 +15894,11 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -15949,7 +15966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -15957,6 +15974,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15981,10 +15999,10 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="(Do Not Modify) Facility"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="(Do Not Modify) Row Checksum"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="(Do Not Modify) Modified On"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Name"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Address: Street 1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Address: City"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Address: Street 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Address"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="City"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="StoreName"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Address: County"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Address: State/Province"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Address: Country/Region"/>
@@ -16296,8 +16314,8 @@
   <sheetPr codeName="dataSheet"/>
   <dimension ref="A1:M1180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1095" workbookViewId="0">
-      <selection activeCell="D1115" sqref="D1115"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16319,17 +16337,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="D1" s="7" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5277</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5278</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5279</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -88958,21 +88976,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100685D4864FC6923449E3306F49A36AD4A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="159a231319d78afe0dbb207041790d99">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b3a1ae05-ebfd-4536-8fa6-642ad52ab88c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="788db7008c2d0adfa5b90c043b4a983b" ns3:_="">
     <xsd:import namespace="b3a1ae05-ebfd-4536-8fa6-642ad52ab88c"/>
@@ -89104,10 +89107,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48401FE0-24CD-438F-8FED-EDA39DC0CC1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AAE7AE-173A-415C-875C-5D05B5A5201E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b3a1ae05-ebfd-4536-8fa6-642ad52ab88c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -89129,19 +89157,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AAE7AE-173A-415C-875C-5D05B5A5201E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48401FE0-24CD-438F-8FED-EDA39DC0CC1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b3a1ae05-ebfd-4536-8fa6-642ad52ab88c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>